--- a/resources/assets/monday.xlsx
+++ b/resources/assets/monday.xlsx
@@ -852,7 +852,7 @@
           </table:table-cell>
           <table:table-cell table:style-name="ce33" office:value-type="string" calcext:value-type="string">
             <text:p>
-              MM Gr3(G,H) 
+              MM-Gr3(G,H) 
               <text:s text:c="27"/>
               Asiya
             </text:p>
@@ -1068,7 +1068,7 @@
           </table:table-cell>
           <table:table-cell table:style-name="ce11" office:value-type="string" calcext:value-type="string">
             <text:p>
-              CAL I-D 
+              CALI-D 
               <text:s text:c="17"/>
               Ashhad
             </text:p>
@@ -1096,14 +1096,14 @@
           </table:table-cell>
           <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>
-              CAL I-F 
+              CALI-F 
               <text:s text:c="17"/>
               Ashhad
             </text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>
-              CAL I-G 
+              CALI-G 
               <text:s text:c="30"/>
               Abdul Basit
             </text:p>
@@ -1124,7 +1124,7 @@
           </table:table-cell>
           <table:table-cell table:style-name="ce11" office:value-type="string" calcext:value-type="string">
             <text:p>
-              CAL I-C 
+              CALI-C 
               <text:s text:c="25"/>
               Dr. Sadaqat
             </text:p>
@@ -1145,7 +1145,7 @@
           </table:table-cell>
           <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>
-              CAL I-B 
+              CALI-B 
               <text:s text:c="25"/>
               Dr. Sadaqat
             </text:p>
@@ -1153,7 +1153,7 @@
           <table:table-cell table:style-name="ce35" table:number-columns-repeated="2"/>
           <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>
-              CAL I-A 
+              CALI-A 
               <text:s text:c="38"/>
               Dr. Sadaqat
             </text:p>
@@ -1272,9 +1272,9 @@
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
     <meta:creation-date>2017-11-05T14:59:17.331088408</meta:creation-date>
-    <dc:date>2017-11-05T22:55:10.163377547</dc:date>
-    <meta:editing-duration>PT1H53M17S</meta:editing-duration>
-    <meta:editing-cycles>7</meta:editing-cycles>
+    <dc:date>2017-11-07T16:57:55.726316647</dc:date>
+    <meta:editing-duration>PT2H53M17S</meta:editing-duration>
+    <meta:editing-cycles>15</meta:editing-cycles>
     <meta:generator>LibreOffice/5.1.6.2$Linux_X86_64 LibreOffice_project/10m0$Build-2</meta:generator>
     <meta:document-statistic meta:table-count="1" meta:cell-count="130" meta:object-count="0"/>
   </office:meta>
@@ -1295,7 +1295,7 @@
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
               <config:config-item config:name="CursorPositionX" config:type="int">4</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">9</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">10</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -1372,7 +1372,7 @@
       <config:config-item config:name="HasColumnRowHeaders" config:type="boolean">true</config:config-item>
       <config:config-item config:name="RasterSubdivisionY" config:type="int">1</config:config-item>
       <config:config-item config:name="AutoCalculate" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">gAH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMApgAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCm1hcmdpbmRhanVzdG1lbnQ9MCwwLDAsMApjb2xvcmRlcHRoPTI0CnBzbGV2ZWw9MApwZGZkZXZpY2U9MApjb2xvcmRldmljZT0wClBQRENvbnRleERhdGEKUGFnZVNpemU6QTQAABIAQ09NUEFUX0RVUExFWF9NT0RFCgBEVVBMRVhfT0ZG</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">jAH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAsgAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCm1hcmdpbmRhanVzdG1lbnQ9MCwwLDAsMApjb2xvcmRlcHRoPTI0CnBzbGV2ZWw9MApwZGZkZXZpY2U9MApjb2xvcmRldmljZT0wClBQRENvbnRleERhdGEKRHVwbGV4Ok5vbmUAUGFnZVNpemU6QTQAABIAQ09NUEFUX0RVUExFWF9NT0RFCgBEVVBMRVhfT0ZG</config:config-item>
       <config:config-item config:name="ApplyUserData" config:type="boolean">true</config:config-item>
       <config:config-item config:name="CharacterCompressionType" config:type="short">0</config:config-item>
     </config:config-item-set>
@@ -1731,9 +1731,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2017-11-05">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2017-11-07">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="21:41:33.665623149">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="15:57:52.552960087">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
